--- a/convenios.xlsx
+++ b/convenios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\godot\proyectos\videojuegoUni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaram\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C0705-0285-46E9-84C2-83BB876E4900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6467E66-1A3D-4420-89F8-22E964A22E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capas de Profundidad" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Elemento</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Proyectiles</t>
+  </si>
+  <si>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -217,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,11 +238,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,13 +541,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -547,43 +571,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
@@ -594,119 +618,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432A6B2-9AD1-404B-8E3E-C111D04B95F0}">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/convenios.xlsx
+++ b/convenios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iaram\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6467E66-1A3D-4420-89F8-22E964A22E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039FF6B-A729-4FD2-90DB-62481CD4F5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capas de Profundidad" sheetId="1" r:id="rId1"/>
     <sheet name="Colisiones" sheetId="2" r:id="rId2"/>
+    <sheet name="CanvasEnMain" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Elemento</t>
   </si>
@@ -71,6 +72,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>CanvasLayout</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Pausa</t>
+  </si>
+  <si>
+    <t>CanvasLayout2</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>CanvasLayout3</t>
+  </si>
+  <si>
+    <t>Dialogos</t>
   </si>
 </sst>
 </file>
@@ -538,16 +563,16 @@
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="B3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -571,43 +596,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
@@ -620,18 +645,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D432A6B2-9AD1-404B-8E3E-C111D04B95F0}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -642,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -653,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -664,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -675,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -686,7 +711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -697,59 +722,146 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C65C7-56BF-4ABD-B642-7FF0666AED59}">
+  <dimension ref="B3:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/convenios.xlsx
+++ b/convenios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039FF6B-A729-4FD2-90DB-62481CD4F5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884C25AE-2FF4-4ABE-9064-A067FC580612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capas de Profundidad" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Elemento</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Dialogos</t>
+  </si>
+  <si>
+    <t>Layer</t>
   </si>
 </sst>
 </file>
@@ -566,13 +569,13 @@
       <selection activeCell="C15" sqref="B3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -596,43 +599,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
@@ -649,14 +652,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -667,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -689,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -700,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -711,7 +714,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -722,55 +725,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="12"/>
     </row>
   </sheetData>
@@ -781,85 +784,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C65C7-56BF-4ABD-B642-7FF0666AED59}">
-  <dimension ref="B3:C15"/>
+  <dimension ref="B3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
